--- a/excel/Tiobe.xlsx
+++ b/excel/Tiobe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Jul 2024</t>
+          <t>Rank</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jul 2023</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Ratings</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
         </is>
       </c>
     </row>
@@ -461,19 +456,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Python</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.12%</t>
         </is>
       </c>
     </row>
@@ -483,19 +469,10 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>C++</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.34%</t>
         </is>
       </c>
     </row>
@@ -505,19 +482,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.48%</t>
         </is>
       </c>
     </row>
@@ -527,19 +495,10 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Java</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.59%</t>
         </is>
       </c>
     </row>
@@ -549,19 +508,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>C#</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.72%</t>
         </is>
       </c>
     </row>
@@ -571,19 +521,10 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>JavaScript</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.79%</t>
         </is>
       </c>
     </row>
@@ -593,19 +534,10 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.19%</t>
+          <t>SQL</t>
         </is>
       </c>
     </row>
@@ -615,19 +547,10 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>Visual Basic</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.08%</t>
         </is>
       </c>
     </row>
@@ -637,19 +560,10 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fortran</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.05%</t>
+          <t>Go</t>
         </is>
       </c>
     </row>
@@ -659,19 +573,140 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.04%</t>
+          <t>Fortran</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MATLAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Delphi/Object Pascal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ruby</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Assembly language</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Scratch</t>
         </is>
       </c>
     </row>
